--- a/biology/Médecine/Parasitémie/Parasitémie.xlsx
+++ b/biology/Médecine/Parasitémie/Parasitémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parasit%C3%A9mie</t>
+          <t>Parasitémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La parasitémie  est la quantité d'un parasite présent dans le sang humain ou animal (plasmodium falciparum ou autre plasmodium paludique, dans le cas du paludisme par exemple)
 Elle est utilisée pour le diagnostic d'une maladie parasitaire, ou l'efficacité du traitement contre cette maladie. 
